--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1229,7 +1229,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
 </t>
   </si>
   <si>
@@ -10240,7 +10240,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>392</v>
       </c>
@@ -10253,13 +10253,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="709">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1414,6 +1414,15 @@
     <t>Encounter.participant:receivedBy.type</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="test"/&gt;
+    &lt;display value="Received by"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Encounter.participant:receivedBy.period</t>
   </si>
   <si>
@@ -1442,6 +1451,15 @@
     <t>Encounter.participant:teamLeader.type</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="test"/&gt;
+    &lt;display value="Team Leader"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Encounter.participant:teamLeader.period</t>
   </si>
   <si>
@@ -1466,6 +1484,15 @@
     <t>Encounter.participant:treatmentOfficer.type</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="test"/&gt;
+    &lt;display value="Treatment Officer"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Encounter.participant:treatmentOfficer.period</t>
   </si>
   <si>
@@ -1490,6 +1517,15 @@
     <t>Encounter.participant:transportOfficer.type</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="test"/&gt;
+    &lt;display value="Transport Officer"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Encounter.participant:transportOfficer.period</t>
   </si>
   <si>
@@ -1512,6 +1548,15 @@
   </si>
   <si>
     <t>Encounter.participant:assistant.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="test"/&gt;
+    &lt;display value="Assistant"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Encounter.participant:assistant.period</t>
@@ -2104,7 +2149,7 @@
     <t>Encounter.location:accidentSite.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-incident)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident)
 </t>
   </si>
   <si>
@@ -2117,35 +2162,35 @@
     <t>Encounter.location:accidentSite.period</t>
   </si>
   <si>
-    <t>Encounter.location:serviceSite</t>
-  </si>
-  <si>
-    <t>serviceSite</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.id</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.location</t>
+    <t>Encounter.location:facility</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.id</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-service)
 </t>
   </si>
   <si>
-    <t>Encounter.location:serviceSite.status</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.physicalType</t>
-  </si>
-  <si>
-    <t>Encounter.location:serviceSite.period</t>
+    <t>Encounter.location:facility.status</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.physicalType</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.period</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
@@ -11440,7 +11485,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>448</v>
       </c>
@@ -11461,7 +11506,7 @@
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
@@ -11909,7 +11954,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
@@ -11944,7 +11989,7 @@
         <v>81</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>81</v>
@@ -12012,7 +12057,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>435</v>
@@ -12124,7 +12169,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>440</v>
@@ -12150,7 +12195,7 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>442</v>
@@ -12236,13 +12281,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>418</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>81</v>
@@ -12252,7 +12297,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -12350,7 +12395,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>424</v>
@@ -12462,7 +12507,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>425</v>
@@ -12576,7 +12621,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>426</v>
@@ -12692,7 +12737,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>427</v>
@@ -12703,7 +12748,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>80</v>
@@ -12738,7 +12783,7 @@
         <v>81</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>81</v>
@@ -12806,7 +12851,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>435</v>
@@ -12918,7 +12963,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>440</v>
@@ -12944,7 +12989,7 @@
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>442</v>
@@ -13030,13 +13075,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>418</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>81</v>
@@ -13046,7 +13091,7 @@
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>81</v>
@@ -13144,7 +13189,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>424</v>
@@ -13256,7 +13301,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>425</v>
@@ -13370,7 +13415,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>426</v>
@@ -13486,7 +13531,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>427</v>
@@ -13497,7 +13542,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>80</v>
@@ -13532,7 +13577,7 @@
         <v>81</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>81</v>
@@ -13600,7 +13645,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>435</v>
@@ -13712,7 +13757,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>440</v>
@@ -13738,7 +13783,7 @@
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>442</v>
@@ -13824,13 +13869,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>418</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>81</v>
@@ -13840,7 +13885,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>81</v>
@@ -13938,7 +13983,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>424</v>
@@ -14050,7 +14095,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>425</v>
@@ -14164,7 +14209,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>426</v>
@@ -14280,7 +14325,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>427</v>
@@ -14291,7 +14336,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -14326,7 +14371,7 @@
         <v>81</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>81</v>
@@ -14394,7 +14439,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>435</v>
@@ -14506,7 +14551,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>440</v>
@@ -14532,7 +14577,7 @@
         <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>442</v>
@@ -14618,13 +14663,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>418</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>81</v>
@@ -14732,7 +14777,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>424</v>
@@ -14844,7 +14889,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>425</v>
@@ -14958,7 +15003,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>426</v>
@@ -15074,7 +15119,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>427</v>
@@ -15085,7 +15130,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>80</v>
@@ -15120,7 +15165,7 @@
         <v>81</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>81</v>
@@ -15188,7 +15233,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>435</v>
@@ -15300,7 +15345,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>440</v>
@@ -15326,7 +15371,7 @@
         <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>442</v>
@@ -15412,10 +15457,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15438,13 +15483,13 @@
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15495,7 +15540,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15513,21 +15558,21 @@
         <v>416</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15553,13 +15598,13 @@
         <v>287</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15609,7 +15654,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15624,24 +15669,24 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15750,10 +15795,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15864,10 +15909,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15890,16 +15935,16 @@
         <v>90</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15949,7 +15994,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -15958,7 +16003,7 @@
         <v>89</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>101</v>
@@ -15967,21 +16012,21 @@
         <v>81</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16004,23 +16049,23 @@
         <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q119" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="R119" t="s" s="2">
         <v>81</v>
@@ -16065,7 +16110,7 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16074,7 +16119,7 @@
         <v>89</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>101</v>
@@ -16083,21 +16128,21 @@
         <v>81</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16120,16 +16165,16 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16179,7 +16224,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16194,28 +16239,28 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16237,13 +16282,13 @@
         <v>185</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16272,28 +16317,28 @@
         <v>113</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF121" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16308,28 +16353,28 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16348,16 +16393,16 @@
         <v>90</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -16407,7 +16452,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16422,24 +16467,24 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16465,10 +16510,10 @@
         <v>335</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16519,7 +16564,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16537,7 +16582,7 @@
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -16548,10 +16593,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16660,10 +16705,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16774,10 +16819,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16890,14 +16935,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -16916,16 +16961,16 @@
         <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -16975,7 +17020,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -16990,24 +17035,24 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17033,10 +17078,10 @@
         <v>185</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17066,10 +17111,10 @@
         <v>113</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>81</v>
@@ -17087,7 +17132,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17116,10 +17161,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17142,13 +17187,13 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17199,7 +17244,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17217,7 +17262,7 @@
         <v>81</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>81</v>
@@ -17228,10 +17273,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17254,16 +17299,16 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17313,7 +17358,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17331,7 +17376,7 @@
         <v>81</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>81</v>
@@ -17342,10 +17387,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17371,13 +17416,13 @@
         <v>335</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -17427,7 +17472,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17445,7 +17490,7 @@
         <v>81</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
@@ -17456,10 +17501,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17568,10 +17613,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17682,10 +17727,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17798,10 +17843,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17827,10 +17872,10 @@
         <v>147</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17881,7 +17926,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -17905,15 +17950,15 @@
         <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17936,13 +17981,13 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17993,7 +18038,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18011,7 +18056,7 @@
         <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
@@ -18022,10 +18067,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18051,10 +18096,10 @@
         <v>185</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18084,10 +18129,10 @@
         <v>113</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>81</v>
@@ -18105,7 +18150,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18123,21 +18168,21 @@
         <v>81</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18163,10 +18208,10 @@
         <v>185</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -18196,10 +18241,10 @@
         <v>375</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>81</v>
@@ -18217,7 +18262,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18241,15 +18286,15 @@
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18275,16 +18320,16 @@
         <v>185</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -18312,28 +18357,28 @@
         <v>375</v>
       </c>
       <c r="Y139" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18351,21 +18396,21 @@
         <v>81</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18391,10 +18436,10 @@
         <v>185</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -18424,10 +18469,10 @@
         <v>113</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>81</v>
@@ -18445,7 +18490,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18463,21 +18508,21 @@
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18503,10 +18548,10 @@
         <v>185</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18536,10 +18581,10 @@
         <v>113</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>81</v>
@@ -18557,7 +18602,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18575,21 +18620,21 @@
         <v>81</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18612,13 +18657,13 @@
         <v>81</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18669,7 +18714,7 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18687,21 +18732,21 @@
         <v>81</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18727,10 +18772,10 @@
         <v>185</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18760,10 +18805,10 @@
         <v>375</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>81</v>
@@ -18781,7 +18826,7 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -18799,21 +18844,21 @@
         <v>81</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18839,13 +18884,13 @@
         <v>335</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -18883,7 +18928,7 @@
         <v>81</v>
       </c>
       <c r="AB144" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AC144" s="2"/>
       <c r="AD144" t="s" s="2">
@@ -18893,7 +18938,7 @@
         <v>151</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18911,7 +18956,7 @@
         <v>81</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>81</v>
@@ -18922,10 +18967,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19034,10 +19079,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19148,10 +19193,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19264,10 +19309,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19290,13 +19335,13 @@
         <v>81</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -19347,7 +19392,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>89</v>
@@ -19362,24 +19407,24 @@
         <v>101</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19405,13 +19450,13 @@
         <v>109</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -19440,28 +19485,28 @@
         <v>178</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="Z149" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -19479,7 +19524,7 @@
         <v>81</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>81</v>
@@ -19490,10 +19535,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19519,13 +19564,13 @@
         <v>185</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -19554,28 +19599,28 @@
         <v>375</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="Z150" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19604,10 +19649,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19633,10 +19678,10 @@
         <v>287</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19687,7 +19732,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -19716,13 +19761,13 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>81</v>
@@ -19747,13 +19792,13 @@
         <v>335</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -19803,7 +19848,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -19821,7 +19866,7 @@
         <v>81</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>81</v>
@@ -19832,10 +19877,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19944,10 +19989,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20058,10 +20103,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20174,10 +20219,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20200,13 +20245,13 @@
         <v>81</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -20257,7 +20302,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>89</v>
@@ -20272,24 +20317,24 @@
         <v>101</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20315,13 +20360,13 @@
         <v>109</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -20350,28 +20395,28 @@
         <v>178</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="Z157" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF157" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -20389,7 +20434,7 @@
         <v>81</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>81</v>
@@ -20400,10 +20445,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20429,13 +20474,13 @@
         <v>185</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -20464,28 +20509,28 @@
         <v>375</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="Z158" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF158" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -20514,10 +20559,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20543,10 +20588,10 @@
         <v>287</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20597,7 +20642,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -20626,13 +20671,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>81</v>
@@ -20657,13 +20702,13 @@
         <v>335</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -20713,7 +20758,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -20731,7 +20776,7 @@
         <v>81</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>81</v>
@@ -20742,10 +20787,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20854,10 +20899,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20968,10 +21013,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21084,10 +21129,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21110,13 +21155,13 @@
         <v>81</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -21167,7 +21212,7 @@
         <v>81</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>89</v>
@@ -21182,24 +21227,24 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21225,13 +21270,13 @@
         <v>109</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -21260,28 +21305,28 @@
         <v>178</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="Z165" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF165" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -21299,7 +21344,7 @@
         <v>81</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>81</v>
@@ -21310,10 +21355,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21339,13 +21384,13 @@
         <v>185</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -21374,28 +21419,28 @@
         <v>375</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="Z166" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF166" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -21424,10 +21469,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21453,10 +21498,10 @@
         <v>287</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21507,7 +21552,7 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -21536,10 +21581,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21562,13 +21607,13 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -21619,7 +21664,7 @@
         <v>81</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -21637,21 +21682,21 @@
         <v>444</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21674,16 +21719,16 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -21733,7 +21778,7 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -21748,10 +21793,10 @@
         <v>101</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Encounter</t>
+    <t>RS Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1248,7 +1248,7 @@
     <t>The patient or group present at the encounter.</t>
   </si>
   <si>
-    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>Event.subject</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Encounter</t>
+    <t>Road Safety Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1248,7 +1248,7 @@
     <t>The patient or group present at the encounter.</t>
   </si>
   <si>
-    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>Event.subject</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Encounter</t>
+    <t>RS Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1248,7 +1248,7 @@
     <t>The patient or group present at the encounter.</t>
   </si>
   <si>
-    <t>Reference constrained to the Road Safety Patient profile (`RSPatient`).</t>
+    <t>Reference constrained to the RS Patient profile (`RSPatient`).</t>
   </si>
   <si>
     <t>Event.subject</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5870" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5864" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1356,7 +1356,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-EncounterParticipantRole</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1429,7 +1429,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="test"/&gt;
+    &lt;code value="REF"/&gt;
     &lt;display value="Received by"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1465,9 +1465,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="test"/&gt;
-    &lt;display value="Team Leader"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="90123-1"/&gt;
+    &lt;display value="Response team leader name"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1498,9 +1498,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="test"/&gt;
-    &lt;display value="Treatment Officer"/&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="397897005"/&gt;
+    &lt;display value="Paramedic (occupation)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1531,9 +1531,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="test"/&gt;
-    &lt;display value="Transport Officer"/&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="159738005"/&gt;
+    &lt;display value="Ambulanceman (occupation)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1564,9 +1564,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="test"/&gt;
-    &lt;display value="Assistant"/&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="22515006"/&gt;
+    &lt;display value="Medical assistant (occupation)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2603,7 +2603,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.83984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -10534,9 +10534,7 @@
       <c r="X70" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
         <v>433</v>
       </c>
@@ -11328,9 +11326,7 @@
       <c r="X77" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
         <v>433</v>
       </c>
@@ -12122,9 +12118,7 @@
       <c r="X84" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
         <v>433</v>
       </c>
@@ -12916,9 +12910,7 @@
       <c r="X91" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
         <v>433</v>
       </c>
@@ -13710,9 +13702,7 @@
       <c r="X98" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
         <v>433</v>
       </c>
@@ -14504,9 +14494,7 @@
       <c r="X105" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
         <v>433</v>
       </c>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}RSEncounterDischarge:Inpatient encounters use in-patient discharge dispositions; ER/OPD/BHS/RHU encounters use the ambulatory disposition list. {((class.system = 'http://snomed.info/sct' and class.code = '416800000') implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-disposition-ip'))) and (((class.system = 'http://snomed.info/sct' and class.code = '373864002') or (class.system = 'https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/CodeSystem/cs-silph' and (class.code = 'BHS' or class.code = 'RHU'))) implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-disposition-er')))}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}RSEncounterDischarge:Inpatient encounters use in-patient discharge dispositions; ER/OPD/BHS/RHU encounters use the ambulatory disposition list. {((class.system = 'http://snomed.info/sct' and class.code = '416800000') implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/vs-disposition-ip'))) and (((class.system = 'http://snomed.info/sct' and class.code = '373864002') or (class.system = 'http://www.roadsafetyph.doh.gov.ph/CodeSystem/cs-silph' and (class.code = 'BHS' or class.code = 'RHU'))) implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/vs-disposition-er')))}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1430,7 +1430,7 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
     &lt;code value="REF"/&gt;
-    &lt;display value="Received by"/&gt;
+    &lt;display value="referrer"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,6 +1004,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="722248002"/&gt;
   &lt;display value="Patient hospital visit number (observable entity)"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1499,6 +1500,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
     &lt;code value="397897005"/&gt;
     &lt;display value="Paramedic (occupation)"/&gt;
   &lt;/coding&gt;
@@ -1532,6 +1534,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
     &lt;code value="159738005"/&gt;
     &lt;display value="Ambulanceman (occupation)"/&gt;
   &lt;/coding&gt;
@@ -1565,6 +1568,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
     &lt;code value="22515006"/&gt;
     &lt;display value="Medical assistant (occupation)"/&gt;
   &lt;/coding&gt;

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}RSEncounterDischarge:Inpatient encounters use in-patient discharge dispositions; ER/OPD/BHS/RHU encounters use the ambulatory disposition list. {((class.system = 'http://snomed.info/sct' and class.code = '416800000') implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/vs-disposition-ip'))) and (((class.system = 'http://snomed.info/sct' and class.code = '373864002') or (class.system = 'http://www.roadsafetyph.doh.gov.ph/CodeSystem/cs-silph' and (class.code = 'BHS' or class.code = 'RHU'))) implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/vs-disposition-er')))}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}RSEncounterDischarge:Inpatient encounters use in-patient discharge dispositions; ER/OPD/BHS/RHU encounters use the ambulatory disposition list. {((class.system = 'http://snomed.info/sct' and class.code = '416800000') implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-InpatientDisposition'))) and (((class.system = 'http://snomed.info/sct' and class.code = '373864002') or (class.system = 'http://www.roadsafetyph.doh.gov.ph/CodeSystem/cs-silph' and (class.code = 'BHS' or class.code = 'RHU'))) implies (hospitalization.dischargeDisposition.empty() or hospitalization.dischargeDisposition.memberOf('http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-OutpatientERDisposition')))}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">value:location}
+    <t xml:space="preserve">profile:resolve}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve}
+    <t xml:space="preserve">profile:location.resolve()}
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.11328125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:location.resolve()}
+    <t xml:space="preserve">profile:resolve().meta.profile()}
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.11328125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.6796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve().meta.profile()}
+    <t xml:space="preserve">profile:$this.location.resolve()}
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.6796875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.48046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.location.resolve()}
+    <t xml:space="preserve">value:location.resolve().meta.profile[0]}
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.48046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="32.7109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$160</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,10 +1839,6 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">value:location.resolve().meta.profile[0]}
-</t>
-  </si>
-  <si>
     <t>.participation[typeCode=LOC]</t>
   </si>
   <si>
@@ -1948,6 +1944,110 @@
 </t>
   </si>
   <si>
+    <t>Encounter.location:accidentSite.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location:accidentSite.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location:accidentSite.location.reference</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.location:accidentSite.location.type</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Encounter.location:accidentSite.location.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.location:accidentSite.location.display</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Encounter.location:accidentSite.status</t>
   </si>
   <si>
@@ -1977,6 +2077,27 @@
   <si>
     <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-service)
 </t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.reference</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.type</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.location:facility.location.display</t>
   </si>
   <si>
     <t>Encounter.location:facility.status</t>
@@ -2352,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN148"/>
+  <dimension ref="A1:AN160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2388,7 +2509,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="32.7109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -16305,7 +16426,7 @@
         <v>81</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>579</v>
+        <v>350</v>
       </c>
       <c r="AC123" s="2"/>
       <c r="AD123" t="s" s="2">
@@ -16333,7 +16454,7 @@
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -16344,10 +16465,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16456,10 +16577,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16570,10 +16691,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16686,10 +16807,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16712,13 +16833,13 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16769,7 +16890,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -16784,24 +16905,24 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16827,13 +16948,13 @@
         <v>109</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16862,11 +16983,11 @@
         <v>186</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>81</v>
       </c>
@@ -16883,7 +17004,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -16901,7 +17022,7 @@
         <v>81</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
@@ -16912,10 +17033,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16941,13 +17062,13 @@
         <v>193</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -16976,11 +17097,11 @@
         <v>304</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
       </c>
@@ -16997,7 +17118,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17026,10 +17147,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17055,10 +17176,10 @@
         <v>225</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17109,7 +17230,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17138,13 +17259,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>575</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>81</v>
@@ -17243,7 +17364,7 @@
         <v>81</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
@@ -17254,10 +17375,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17366,10 +17487,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17480,10 +17601,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17596,10 +17717,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17622,13 +17743,13 @@
         <v>81</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17679,7 +17800,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>89</v>
@@ -17694,24 +17815,24 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17734,17 +17855,15 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>592</v>
+        <v>170</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -17769,13 +17888,13 @@
         <v>81</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>81</v>
@@ -17793,7 +17912,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>591</v>
+        <v>172</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -17805,13 +17924,13 @@
         <v>81</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>597</v>
+        <v>173</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
@@ -17825,18 +17944,18 @@
         <v>615</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>81</v>
@@ -17848,16 +17967,16 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>599</v>
+        <v>176</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>600</v>
+        <v>177</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>601</v>
+        <v>152</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -17883,49 +18002,49 @@
         <v>81</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>598</v>
+        <v>179</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
@@ -17936,10 +18055,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17959,18 +18078,20 @@
         <v>81</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -18019,7 +18140,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18028,7 +18149,7 @@
         <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>81</v>
+        <v>623</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>101</v>
@@ -18037,7 +18158,7 @@
         <v>81</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>81</v>
@@ -18048,14 +18169,12 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
         <v>81</v>
       </c>
@@ -18064,7 +18183,7 @@
         <v>79</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>81</v>
@@ -18073,19 +18192,19 @@
         <v>81</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>577</v>
+        <v>627</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18096,7 +18215,7 @@
         <v>81</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>81</v>
+        <v>629</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>81</v>
@@ -18111,13 +18230,13 @@
         <v>81</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>81</v>
+        <v>630</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>81</v>
+        <v>631</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>81</v>
@@ -18135,13 +18254,13 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>81</v>
@@ -18153,7 +18272,7 @@
         <v>81</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>580</v>
+        <v>132</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
@@ -18164,10 +18283,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18187,18 +18306,20 @@
         <v>81</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>170</v>
+        <v>635</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>81</v>
@@ -18247,7 +18368,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>172</v>
+        <v>638</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18259,13 +18380,13 @@
         <v>81</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>173</v>
+        <v>639</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -18276,21 +18397,21 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>582</v>
+        <v>641</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>81</v>
@@ -18299,19 +18420,19 @@
         <v>81</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>176</v>
+        <v>642</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>177</v>
+        <v>643</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>152</v>
+        <v>644</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -18361,25 +18482,25 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>179</v>
+        <v>645</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -18390,46 +18511,44 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>270</v>
+        <v>591</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>271</v>
+        <v>592</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>81</v>
       </c>
@@ -18453,13 +18572,13 @@
         <v>81</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>81</v>
@@ -18477,25 +18596,25 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>272</v>
+        <v>590</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>132</v>
+        <v>596</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>81</v>
@@ -18504,12 +18623,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18517,13 +18636,13 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>81</v>
@@ -18532,15 +18651,17 @@
         <v>81</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>623</v>
+        <v>193</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N143" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>81</v>
@@ -18565,13 +18686,13 @@
         <v>81</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>81</v>
+        <v>602</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>81</v>
@@ -18589,10 +18710,10 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>89</v>
@@ -18604,24 +18725,24 @@
         <v>101</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>589</v>
+        <v>81</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>590</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18644,17 +18765,15 @@
         <v>81</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -18679,13 +18798,13 @@
         <v>81</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>81</v>
@@ -18703,7 +18822,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18721,7 +18840,7 @@
         <v>81</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>597</v>
+        <v>368</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>81</v>
@@ -18732,12 +18851,14 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C145" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="D145" t="s" s="2">
         <v>81</v>
       </c>
@@ -18746,7 +18867,7 @@
         <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>81</v>
@@ -18758,16 +18879,16 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -18793,13 +18914,13 @@
         <v>81</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>81</v>
@@ -18817,13 +18938,13 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>81</v>
@@ -18835,7 +18956,7 @@
         <v>81</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
@@ -18846,10 +18967,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18872,13 +18993,13 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>605</v>
+        <v>170</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>606</v>
+        <v>171</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -18929,7 +19050,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>604</v>
+        <v>172</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -18941,13 +19062,13 @@
         <v>81</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>368</v>
+        <v>173</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
@@ -18956,26 +19077,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>81</v>
@@ -18984,15 +19105,17 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>628</v>
+        <v>176</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N147" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>81</v>
@@ -19041,73 +19164,75 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>627</v>
+        <v>179</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>630</v>
+        <v>173</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>631</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>633</v>
+        <v>134</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>634</v>
+        <v>270</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>635</v>
+        <v>271</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>81</v>
       </c>
@@ -19155,35 +19280,1395 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF153" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AG148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
+      <c r="AG153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK148" t="s" s="2">
+      <c r="AK153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="AL148" t="s" s="2">
+      <c r="O154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="AM148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN148" t="s" s="2">
+      <c r="AG154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN148">
+  <autoFilter ref="A1:AN160">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19193,7 +20678,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI147">
+  <conditionalFormatting sqref="A2:AI159">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1837,6 +1837,10 @@
   </si>
   <si>
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:location.resolve().meta.profile[0]}
+</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -2509,7 +2513,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="32.7109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -16426,7 +16430,7 @@
         <v>81</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>350</v>
+        <v>579</v>
       </c>
       <c r="AC123" s="2"/>
       <c r="AD123" t="s" s="2">
@@ -16454,7 +16458,7 @@
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -16465,10 +16469,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16577,10 +16581,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16691,10 +16695,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16807,10 +16811,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16833,13 +16837,13 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16890,7 +16894,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -16905,24 +16909,24 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16948,13 +16952,13 @@
         <v>109</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16983,10 +16987,10 @@
         <v>186</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>81</v>
@@ -17004,7 +17008,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17022,7 +17026,7 @@
         <v>81</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
@@ -17033,10 +17037,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17062,13 +17066,13 @@
         <v>193</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17097,10 +17101,10 @@
         <v>304</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
@@ -17118,7 +17122,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17147,10 +17151,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17176,10 +17180,10 @@
         <v>225</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17230,7 +17234,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17259,13 +17263,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>575</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>81</v>
@@ -17364,7 +17368,7 @@
         <v>81</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
@@ -17375,10 +17379,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17487,10 +17491,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17601,10 +17605,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17717,10 +17721,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17743,13 +17747,13 @@
         <v>81</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17800,7 +17804,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>89</v>
@@ -17815,24 +17819,24 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17941,10 +17945,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18055,10 +18059,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18084,13 +18088,13 @@
         <v>169</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18140,7 +18144,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18149,7 +18153,7 @@
         <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>101</v>
@@ -18169,10 +18173,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18198,13 +18202,13 @@
         <v>103</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18215,7 +18219,7 @@
         <v>81</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>81</v>
@@ -18233,10 +18237,10 @@
         <v>198</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>81</v>
@@ -18254,7 +18258,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18283,10 +18287,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18312,13 +18316,13 @@
         <v>156</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -18368,7 +18372,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18386,7 +18390,7 @@
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -18397,10 +18401,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18426,13 +18430,13 @@
         <v>169</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -18482,7 +18486,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18511,10 +18515,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18540,13 +18544,13 @@
         <v>109</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18575,10 +18579,10 @@
         <v>186</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>81</v>
@@ -18596,7 +18600,7 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18614,7 +18618,7 @@
         <v>81</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>81</v>
@@ -18625,10 +18629,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18654,13 +18658,13 @@
         <v>193</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -18689,10 +18693,10 @@
         <v>304</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>81</v>
@@ -18710,7 +18714,7 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -18739,10 +18743,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18768,10 +18772,10 @@
         <v>225</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18822,7 +18826,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18851,13 +18855,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>575</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>81</v>
@@ -18956,7 +18960,7 @@
         <v>81</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
@@ -18967,10 +18971,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19079,10 +19083,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19193,10 +19197,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19309,10 +19313,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19335,13 +19339,13 @@
         <v>81</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19392,7 +19396,7 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>89</v>
@@ -19407,24 +19411,24 @@
         <v>101</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19533,10 +19537,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19647,10 +19651,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19676,13 +19680,13 @@
         <v>169</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -19732,7 +19736,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -19741,7 +19745,7 @@
         <v>89</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>101</v>
@@ -19761,10 +19765,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19790,13 +19794,13 @@
         <v>103</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -19807,7 +19811,7 @@
         <v>81</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>81</v>
@@ -19825,10 +19829,10 @@
         <v>198</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>81</v>
@@ -19846,7 +19850,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -19875,10 +19879,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19904,13 +19908,13 @@
         <v>156</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -19960,7 +19964,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -19978,7 +19982,7 @@
         <v>81</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
@@ -19989,10 +19993,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20018,13 +20022,13 @@
         <v>169</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -20074,7 +20078,7 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -20103,10 +20107,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20132,13 +20136,13 @@
         <v>109</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -20167,10 +20171,10 @@
         <v>186</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>81</v>
@@ -20188,7 +20192,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -20206,7 +20210,7 @@
         <v>81</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>81</v>
@@ -20217,10 +20221,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20246,13 +20250,13 @@
         <v>193</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -20281,10 +20285,10 @@
         <v>304</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>81</v>
@@ -20302,7 +20306,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -20331,10 +20335,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20360,10 +20364,10 @@
         <v>225</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -20414,7 +20418,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -20443,10 +20447,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20472,10 +20476,10 @@
         <v>522</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20526,7 +20530,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -20544,21 +20548,21 @@
         <v>374</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20581,16 +20585,16 @@
         <v>81</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -20640,7 +20644,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -20655,10 +20659,10 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$148</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,10 +1839,6 @@
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
   </si>
   <si>
-    <t xml:space="preserve">value:location.resolve().meta.profile[0]}
-</t>
-  </si>
-  <si>
     <t>.participation[typeCode=LOC]</t>
   </si>
   <si>
@@ -1932,6 +1928,9 @@
     <t>accidentSite</t>
   </si>
   <si>
+    <t>First Slice is the Accident Location</t>
+  </si>
+  <si>
     <t>Encounter.location:accidentSite.id</t>
   </si>
   <si>
@@ -1944,114 +1943,6 @@
     <t>Encounter.location:accidentSite.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident)
-</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.id</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.id</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.reference</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.type</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.location:accidentSite.location.display</t>
-  </si>
-  <si>
-    <t>Encounter.location.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Encounter.location:accidentSite.status</t>
   </si>
   <si>
@@ -2067,6 +1958,9 @@
     <t>facility</t>
   </si>
   <si>
+    <t>Second slice is the Facility Location</t>
+  </si>
+  <si>
     <t>Encounter.location:facility.id</t>
   </si>
   <si>
@@ -2077,31 +1971,6 @@
   </si>
   <si>
     <t>Encounter.location:facility.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-service)
-</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.id</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.reference</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.type</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.location:facility.location.display</t>
   </si>
   <si>
     <t>Encounter.location:facility.status</t>
@@ -2477,7 +2346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN160"/>
+  <dimension ref="A1:AN148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2513,7 +2382,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="32.7109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -16430,7 +16299,7 @@
         <v>81</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>579</v>
+        <v>81</v>
       </c>
       <c r="AC123" s="2"/>
       <c r="AD123" t="s" s="2">
@@ -16458,7 +16327,7 @@
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -16469,10 +16338,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16581,10 +16450,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16695,10 +16564,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16811,10 +16680,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16837,13 +16706,13 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16894,7 +16763,7 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>89</v>
@@ -16909,24 +16778,24 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16952,13 +16821,13 @@
         <v>109</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16987,11 +16856,11 @@
         <v>186</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>81</v>
       </c>
@@ -17008,7 +16877,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17026,7 +16895,7 @@
         <v>81</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
@@ -17037,10 +16906,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17066,13 +16935,13 @@
         <v>193</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17101,11 +16970,11 @@
         <v>304</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
       </c>
@@ -17122,7 +16991,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17151,10 +17020,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17180,10 +17049,10 @@
         <v>225</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17234,7 +17103,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17263,13 +17132,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>575</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>81</v>
@@ -17294,7 +17163,7 @@
         <v>262</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>577</v>
@@ -17368,7 +17237,7 @@
         <v>81</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
@@ -17382,7 +17251,7 @@
         <v>609</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17494,7 +17363,7 @@
         <v>610</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17608,7 +17477,7 @@
         <v>611</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17719,12 +17588,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
         <v>612</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17738,7 +17607,7 @@
         <v>89</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>81</v>
@@ -17747,13 +17616,13 @@
         <v>81</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17804,7 +17673,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>89</v>
@@ -17819,24 +17688,24 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17859,15 +17728,17 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>170</v>
+        <v>591</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N136" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -17892,13 +17763,13 @@
         <v>81</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>81</v>
@@ -17916,7 +17787,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>172</v>
+        <v>590</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -17928,13 +17799,13 @@
         <v>81</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>173</v>
+        <v>596</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
@@ -17945,21 +17816,21 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>81</v>
@@ -17971,16 +17842,16 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>176</v>
+        <v>598</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>177</v>
+        <v>599</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>152</v>
+        <v>600</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18006,49 +17877,49 @@
         <v>81</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>81</v>
+        <v>602</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>179</v>
+        <v>597</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
@@ -18059,10 +17930,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18082,20 +17953,18 @@
         <v>81</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -18144,7 +18013,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18153,7 +18022,7 @@
         <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>624</v>
+        <v>81</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>101</v>
@@ -18162,7 +18031,7 @@
         <v>81</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>81</v>
@@ -18173,12 +18042,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="D139" t="s" s="2">
         <v>81</v>
       </c>
@@ -18187,7 +18058,7 @@
         <v>79</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>81</v>
@@ -18196,19 +18067,19 @@
         <v>81</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18219,7 +18090,7 @@
         <v>81</v>
       </c>
       <c r="S139" t="s" s="2">
-        <v>630</v>
+        <v>81</v>
       </c>
       <c r="T139" t="s" s="2">
         <v>81</v>
@@ -18234,13 +18105,13 @@
         <v>81</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>631</v>
+        <v>81</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>632</v>
+        <v>81</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>81</v>
@@ -18258,13 +18129,13 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>81</v>
@@ -18276,7 +18147,7 @@
         <v>81</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>81</v>
@@ -18287,10 +18158,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18310,20 +18181,18 @@
         <v>81</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>636</v>
+        <v>170</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>81</v>
@@ -18372,7 +18241,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>639</v>
+        <v>172</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18384,13 +18253,13 @@
         <v>81</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>640</v>
+        <v>173</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -18401,21 +18270,21 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>81</v>
@@ -18424,19 +18293,19 @@
         <v>81</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>643</v>
+        <v>176</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>644</v>
+        <v>177</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>645</v>
+        <v>152</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -18486,25 +18355,25 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>646</v>
+        <v>179</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>81</v>
@@ -18515,44 +18384,46 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>592</v>
+        <v>270</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>593</v>
+        <v>271</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O142" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>81</v>
       </c>
@@ -18576,13 +18447,13 @@
         <v>81</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>81</v>
@@ -18600,25 +18471,25 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>591</v>
+        <v>272</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>81</v>
@@ -18629,10 +18500,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18640,7 +18511,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>89</v>
@@ -18655,17 +18526,15 @@
         <v>81</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>193</v>
+        <v>584</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>81</v>
@@ -18690,13 +18559,13 @@
         <v>81</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>81</v>
@@ -18714,10 +18583,10 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>89</v>
@@ -18729,24 +18598,24 @@
         <v>101</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>81</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18769,15 +18638,17 @@
         <v>81</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -18802,13 +18673,13 @@
         <v>81</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>81</v>
@@ -18826,7 +18697,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18844,7 +18715,7 @@
         <v>81</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>368</v>
+        <v>596</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>81</v>
@@ -18855,14 +18726,12 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
         <v>81</v>
       </c>
@@ -18871,7 +18740,7 @@
         <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>81</v>
@@ -18883,16 +18752,16 @@
         <v>81</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -18918,13 +18787,13 @@
         <v>81</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>81</v>
+        <v>602</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>81</v>
@@ -18942,13 +18811,13 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>81</v>
@@ -18960,7 +18829,7 @@
         <v>81</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>81</v>
@@ -18971,10 +18840,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18997,13 +18866,13 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>170</v>
+        <v>604</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>171</v>
+        <v>605</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19054,7 +18923,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>172</v>
+        <v>603</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19066,13 +18935,13 @@
         <v>81</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>173</v>
+        <v>368</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>81</v>
@@ -19081,26 +18950,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>81</v>
@@ -19109,17 +18978,15 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>134</v>
+        <v>522</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>176</v>
+        <v>627</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>81</v>
@@ -19168,75 +19035,73 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>179</v>
+        <v>626</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>81</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>134</v>
+        <v>632</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>270</v>
+        <v>633</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>271</v>
+        <v>634</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>81</v>
       </c>
@@ -19284,1395 +19149,35 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>272</v>
+        <v>631</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>132</v>
+        <v>637</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q151" s="2"/>
-      <c r="R151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O152" s="2"/>
-      <c r="P152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q152" s="2"/>
-      <c r="R152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q157" s="2"/>
-      <c r="R157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q158" s="2"/>
-      <c r="R158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q159" s="2"/>
-      <c r="R159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q160" s="2"/>
-      <c r="R160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN160" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN160">
+  <autoFilter ref="A1:AN148">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20682,7 +19187,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI159">
+  <conditionalFormatting sqref="A2:AI147">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-encounter.xlsx
+++ b/StructureDefinition-rs-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
